--- a/Datasets/TP_Phe comparison.xlsx
+++ b/Datasets/TP_Phe comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmpug\Documents\UCSC stuff\Python_Scripts\TP_Phe_Project\TP_baseline_coupling\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E290B61-CBB3-40FA-BE28-69E4DCC4C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCF921-6B1F-4972-B028-B1D2A714C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="186">
   <si>
     <t>T1104-A7</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Coral ID</t>
-  </si>
-  <si>
     <t>Ger9702</t>
   </si>
   <si>
@@ -78,12 +75,6 @@
     <t>Lys</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
     <t xml:space="preserve">L12-2     </t>
   </si>
   <si>
@@ -246,15 +237,6 @@
     <t>TANG3-24</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
     <t>SE2200</t>
   </si>
   <si>
@@ -267,12 +249,6 @@
     <t>SW2600</t>
   </si>
   <si>
-    <t>St. Helens</t>
-  </si>
-  <si>
-    <t>Cascade</t>
-  </si>
-  <si>
     <t>Ridge 1A</t>
   </si>
   <si>
@@ -280,18 +256,6 @@
   </si>
   <si>
     <t>valley 1</t>
-  </si>
-  <si>
-    <t>1300-1400 m</t>
-  </si>
-  <si>
-    <t>1000 m</t>
-  </si>
-  <si>
-    <t>1532 m</t>
-  </si>
-  <si>
-    <t>1590 m</t>
   </si>
   <si>
     <t>os60</t>
@@ -470,18 +434,12 @@
     <t>bulk</t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>PIV146 003</t>
   </si>
   <si>
     <t>PV 655 174</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>SH1300</t>
   </si>
   <si>
@@ -539,12 +497,6 @@
     <t>Sherwood et al., 2014</t>
   </si>
   <si>
-    <t>This Excel file includes all the observational data included in the manuscript "Euphotic zone nitrogen recycling couples ecosystem trophic structure and amino acid proxies for δ15N of primary production in paleoceanographic archives", submitted to Global Biogeochemical Cycles in February 2025. The table below gives a brief summary of each dataset, as well as the original references and DOIs for the original article and any relevant data repositories.</t>
-  </si>
-  <si>
-    <t>Pugsley et al., in press</t>
-  </si>
-  <si>
     <t>Glynn_KR</t>
   </si>
   <si>
@@ -560,9 +512,6 @@
     <t>Deep-sea gold coral (Kulamanamana) archive data from Kingman Ridge, near the equator</t>
   </si>
   <si>
-    <t>unpublished</t>
-  </si>
-  <si>
     <t>Guilderson et al., 2024</t>
   </si>
   <si>
@@ -572,18 +521,12 @@
     <t>Sediment core archive data from the Bering Sea at IODP core site U1340.</t>
   </si>
   <si>
-    <t>data available from Electronic Annex 1 included as supplementary information with original publication</t>
-  </si>
-  <si>
     <t>Batista et al., 2014</t>
   </si>
   <si>
     <t>Sediment core archive data from the Santa Barbara Basin.</t>
   </si>
   <si>
-    <t>Relevant Info about Data Access</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.gca.2014.08.002</t>
   </si>
   <si>
@@ -620,7 +563,214 @@
     <t>data available from tables in original thesis</t>
   </si>
   <si>
-    <t>NCEI paleoceanography</t>
+    <t>data available from supplementary information with original Batista et al., 2014 publication ( Electronic Annex 1)</t>
+  </si>
+  <si>
+    <t>This Excel file includes all the observational data used for analysis in the manuscript "Euphotic zone nitrogen recycling couples ecosystem trophic structure and amino acid proxies for δ15N of primary production in paleoceanographic archives", submitted to Global Biogeochemical Cycles in February 2025. The table below gives a brief summary of each dataset, as well as the original references and DOIs for the original article and any relevant data repositories.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/3nzr-yg28</t>
+  </si>
+  <si>
+    <t>new, unpublished dataset</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/6m4e-n944</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.gca.2025.02.018</t>
+  </si>
+  <si>
+    <t>Pugsley et al., 2025</t>
+  </si>
+  <si>
+    <t>Relevant links for data access</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/89rg-cp89</t>
+  </si>
+  <si>
+    <t>Full reference</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sherwood, O. A., Guilderson, T. P., Batista, F. C., Schiff, J. T., &amp; McCarthy, M. D. (2014). Increasing subtropical North Pacific Ocean nitrogen fixation since the Little Ice Age. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(7481), 78–81.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pugsley, G. M., Guilderson, T. P., Glynn, D. S., Shen, Y., &amp; McCarthy, M. D. (2025). Proteinaceous deep sea coral amino acid isotope records reveal climate-driven decadal-scale planktic ecosystem fluctuations. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Geochimica et Cosmochimica Acta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Guilderson, T. P., Glynn, D. S., &amp; McCarthy, M. D. (2024). Tropical decadal variability in nutrient supply and phytoplankton community in the Central Equatorial Pacific during the late Holocene. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scientific Reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1), 1–11. https://doi.org/10.1038/s41598-024-54635-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DeLong, K. (2024). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Paleo-Biogeochemistry of the Subpolar Pacific: How Nutrient Supply Responds to Climate Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. UC Santa Cruz. Retrieved from https://escholarship.org/uc/item/5qf092zr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Batista, F. C., Ravelo, A. C., Crusius, J., Casso, M. A., &amp; McCarthy, M. D. (2014). Compound specific amino acid δ 15 N in marine sediments: A new approach for studies of the marine nitrogen cycle. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Geochimica et Cosmochimica Acta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 553–569. </t>
+    </r>
+  </si>
+  <si>
+    <t>Strzepek, K. M. (2015). Deep-sea coral amino acid archives of marine ecosystem function in east and southeast Australian waters.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,12 +808,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -715,6 +859,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -736,9 +893,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -746,31 +903,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -784,9 +938,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1103,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BD6652-7E22-48D6-B660-69F707629B2A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1114,213 +1272,243 @@
     <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.9140625" customWidth="1"/>
-    <col min="4" max="4" width="39.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4140625" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" customWidth="1"/>
+    <col min="4" max="4" width="178.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="90" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="90" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>184</v>
+        <v>138</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1">
+      <c r="E3" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D11" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
         <v>169</v>
-      </c>
-      <c r="E6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1">
-      <c r="A7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33" customHeight="1">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33" customHeight="1">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33" customHeight="1">
-      <c r="A12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{0ADDC35E-EEEA-4626-9CA3-0AF976975130}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{88F4BC65-B71C-45C5-905A-717EA708525E}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{9683057A-3FC7-42E1-B6CA-ECEBAA8D6D83}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{3A99DD26-07EE-4E8A-98A4-A8426651E196}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{8614AF06-20EE-4931-A7C3-F6760E33F02F}"/>
-    <hyperlink ref="D11:D12" r:id="rId6" display="https://doi.org/10.25911/5d5e76576ff8d" xr:uid="{F73C5E58-3059-4089-987D-B4413964C00B}"/>
+    <hyperlink ref="E9" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{0ADDC35E-EEEA-4626-9CA3-0AF976975130}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{88F4BC65-B71C-45C5-905A-717EA708525E}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{9683057A-3FC7-42E1-B6CA-ECEBAA8D6D83}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{3A99DD26-07EE-4E8A-98A4-A8426651E196}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{8614AF06-20EE-4931-A7C3-F6760E33F02F}"/>
+    <hyperlink ref="E11:E12" r:id="rId6" display="https://doi.org/10.25911/5d5e76576ff8d" xr:uid="{F73C5E58-3059-4089-987D-B4413964C00B}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{EF1D6BD5-3FB2-4462-A230-5F36247576E4}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{CD310003-8E22-4307-A06D-AF5D0E55D228}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{7B3E9FAD-62D3-4F76-A726-52E4AB666D84}"/>
+    <hyperlink ref="F3" r:id="rId10" xr:uid="{74E69A46-CBF8-4EA1-8324-F4E7443F82D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1328,1633 +1516,1065 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D6DF4-6029-4526-9B9B-D3581ACADECC}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="10" max="10" width="9" style="2"/>
+    <col min="12" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2002</v>
+      </c>
+      <c r="D2">
+        <v>-0.37</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>3.63</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1981</v>
+      </c>
+      <c r="D3">
+        <v>-0.35</v>
+      </c>
+      <c r="E3">
+        <v>11.58</v>
+      </c>
+      <c r="F3">
+        <v>3.06</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1964</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4">
+        <v>12.72</v>
+      </c>
+      <c r="F4">
+        <v>3.02</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1946</v>
+      </c>
+      <c r="D5">
+        <v>0.97</v>
+      </c>
+      <c r="E5">
+        <v>11.92</v>
+      </c>
+      <c r="F5">
+        <v>2.81</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1922</v>
+      </c>
+      <c r="D6">
+        <v>1.24</v>
+      </c>
+      <c r="E6">
+        <v>12.1</v>
+      </c>
+      <c r="F6">
+        <v>2.39</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>1900</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>11.17</v>
+      </c>
+      <c r="F7">
+        <v>4.66</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>2006</v>
+      </c>
+      <c r="D8">
+        <v>2.78</v>
+      </c>
+      <c r="E8">
+        <v>12.97</v>
+      </c>
+      <c r="F8">
+        <v>5.97</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>2.72</v>
+      </c>
+      <c r="E9">
+        <v>12.96</v>
+      </c>
+      <c r="F9">
+        <v>5.88</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1995</v>
+      </c>
+      <c r="D10">
+        <v>3.35</v>
+      </c>
+      <c r="E10">
+        <v>12.78</v>
+      </c>
+      <c r="F10">
+        <v>2.65</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>1972</v>
+      </c>
+      <c r="D11">
+        <v>3.94</v>
+      </c>
+      <c r="E11">
+        <v>12.25</v>
+      </c>
+      <c r="F11">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1970</v>
+      </c>
+      <c r="D12">
+        <v>1.49</v>
+      </c>
+      <c r="E12">
+        <v>12.33</v>
+      </c>
+      <c r="F12">
+        <v>3.42</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>1967</v>
+      </c>
+      <c r="D13">
+        <v>1.37</v>
+      </c>
+      <c r="E13">
+        <v>11.61</v>
+      </c>
+      <c r="F13">
+        <v>3.41</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1961</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14">
+        <v>11.36</v>
+      </c>
+      <c r="F14">
+        <v>3.78</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1953</v>
+      </c>
+      <c r="D15">
+        <v>2.8</v>
+      </c>
+      <c r="E15">
+        <v>12.89</v>
+      </c>
+      <c r="F15">
+        <v>5.32</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>1947</v>
+      </c>
+      <c r="D16">
+        <v>3.35</v>
+      </c>
+      <c r="E16">
+        <v>13.38</v>
+      </c>
+      <c r="F16">
+        <v>2.8</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>-0.37</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>3.63</v>
-      </c>
-      <c r="E2">
-        <v>-45.3</v>
-      </c>
-      <c r="F2">
-        <v>146.12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H21" si="0">(C2-B2)/7.6+1</f>
-        <v>2.6276315789473683</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2002</v>
-      </c>
-      <c r="J2">
-        <v>2217</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>-0.35</v>
-      </c>
-      <c r="C3">
-        <v>11.58</v>
-      </c>
-      <c r="D3">
-        <v>3.06</v>
-      </c>
-      <c r="E3">
-        <v>-45.3</v>
-      </c>
-      <c r="F3">
-        <v>146.12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>2.5697368421052631</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1981</v>
-      </c>
-      <c r="J3">
-        <v>2217</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C4">
-        <v>12.72</v>
-      </c>
-      <c r="D4">
-        <v>3.02</v>
-      </c>
-      <c r="E4">
-        <v>-45.3</v>
-      </c>
-      <c r="F4">
-        <v>146.12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>2.6644736842105265</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1964</v>
-      </c>
-      <c r="J4">
-        <v>2217</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>0.97</v>
-      </c>
-      <c r="C5">
-        <v>11.92</v>
-      </c>
-      <c r="D5">
-        <v>2.81</v>
-      </c>
-      <c r="E5">
-        <v>-45.3</v>
-      </c>
-      <c r="F5">
-        <v>146.12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>2.4407894736842106</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1946</v>
-      </c>
-      <c r="J5">
-        <v>2217</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>1.24</v>
-      </c>
-      <c r="C6">
-        <v>12.1</v>
-      </c>
-      <c r="D6">
-        <v>2.39</v>
-      </c>
-      <c r="E6">
-        <v>-45.3</v>
-      </c>
-      <c r="F6">
-        <v>146.12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>2.4289473684210527</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1922</v>
-      </c>
-      <c r="J6">
-        <v>2217</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>11.17</v>
-      </c>
-      <c r="D7">
-        <v>4.66</v>
-      </c>
-      <c r="E7">
-        <v>-45.3</v>
-      </c>
-      <c r="F7">
-        <v>146.12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>2.4039473684210524</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1900</v>
-      </c>
-      <c r="J7">
-        <v>2217</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>1968</v>
+      </c>
+      <c r="D17">
         <v>2.78</v>
       </c>
-      <c r="C8">
-        <v>12.97</v>
-      </c>
-      <c r="D8">
-        <v>5.97</v>
-      </c>
-      <c r="E8">
-        <v>-45.18</v>
-      </c>
-      <c r="F8">
-        <v>146.06</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2.340789473684211</v>
-      </c>
-      <c r="I8" s="15">
-        <v>2006</v>
-      </c>
-      <c r="J8">
-        <v>2423</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>2.72</v>
-      </c>
-      <c r="C9">
-        <v>12.96</v>
-      </c>
-      <c r="D9">
-        <v>5.88</v>
-      </c>
-      <c r="E9">
-        <v>-45.18</v>
-      </c>
-      <c r="F9">
-        <v>146.06</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>2.3473684210526318</v>
-      </c>
-      <c r="I9" s="14">
-        <v>2000</v>
-      </c>
-      <c r="J9">
-        <v>2423</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>3.35</v>
-      </c>
-      <c r="C10">
-        <v>12.78</v>
-      </c>
-      <c r="D10">
-        <v>2.65</v>
-      </c>
-      <c r="E10">
-        <v>-45.18</v>
-      </c>
-      <c r="F10">
-        <v>146.06</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>2.2407894736842104</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1995</v>
-      </c>
-      <c r="J10">
-        <v>2423</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>3.94</v>
-      </c>
-      <c r="C11">
-        <v>12.25</v>
-      </c>
-      <c r="D11">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E11">
-        <v>-45.18</v>
-      </c>
-      <c r="F11">
-        <v>146.06</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>2.0934210526315793</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1972</v>
-      </c>
-      <c r="J11">
-        <v>2423</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>1.49</v>
-      </c>
-      <c r="C12">
-        <v>12.33</v>
-      </c>
-      <c r="D12">
-        <v>3.42</v>
-      </c>
-      <c r="E12">
-        <v>-45.18</v>
-      </c>
-      <c r="F12">
-        <v>146.06</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>2.4263157894736844</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1970</v>
-      </c>
-      <c r="J12">
-        <v>2423</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>1.37</v>
-      </c>
-      <c r="C13">
-        <v>11.61</v>
-      </c>
-      <c r="D13">
-        <v>3.41</v>
-      </c>
-      <c r="E13">
-        <v>-45.18</v>
-      </c>
-      <c r="F13">
-        <v>146.06</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>2.3473684210526313</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1967</v>
-      </c>
-      <c r="J13">
-        <v>2423</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>1.5</v>
-      </c>
-      <c r="C14">
-        <v>11.36</v>
-      </c>
-      <c r="D14">
-        <v>3.78</v>
-      </c>
-      <c r="E14">
-        <v>-45.18</v>
-      </c>
-      <c r="F14">
-        <v>146.06</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>2.2973684210526315</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1961</v>
-      </c>
-      <c r="J14">
-        <v>2423</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="E17">
+        <v>12.54</v>
+      </c>
+      <c r="F17">
+        <v>6.5</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>2.8</v>
-      </c>
-      <c r="C15">
-        <v>12.89</v>
-      </c>
-      <c r="D15">
+      <c r="C18">
+        <v>1939</v>
+      </c>
+      <c r="D18">
+        <v>1.92</v>
+      </c>
+      <c r="E18">
+        <v>12.38</v>
+      </c>
+      <c r="F18">
         <v>5.32</v>
       </c>
-      <c r="E15">
-        <v>-45.18</v>
-      </c>
-      <c r="F15">
-        <v>146.06</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>2.3276315789473685</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1953</v>
-      </c>
-      <c r="J15">
-        <v>2423</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>3.35</v>
-      </c>
-      <c r="C16">
-        <v>13.38</v>
-      </c>
-      <c r="D16">
-        <v>2.8</v>
-      </c>
-      <c r="E16">
-        <v>-45.18</v>
-      </c>
-      <c r="F16">
-        <v>146.06</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>2.3197368421052635</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1947</v>
-      </c>
-      <c r="J16">
-        <v>2423</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="C19">
+        <v>1931</v>
+      </c>
+      <c r="D19">
+        <v>3.87</v>
+      </c>
+      <c r="E19">
+        <v>11.91</v>
+      </c>
+      <c r="F19">
+        <v>6.07</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>2.78</v>
-      </c>
-      <c r="C17">
-        <v>12.54</v>
-      </c>
-      <c r="D17">
-        <v>6.5</v>
-      </c>
-      <c r="E17">
-        <v>-45.37</v>
-      </c>
-      <c r="F17">
-        <v>144.61000000000001</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>2.2842105263157895</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1968</v>
-      </c>
-      <c r="J17">
-        <v>2623</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="C20">
+        <v>1921</v>
+      </c>
+      <c r="D20">
+        <v>2.57</v>
+      </c>
+      <c r="E20">
+        <v>11.05</v>
+      </c>
+      <c r="F20">
+        <v>6.79</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>1.92</v>
-      </c>
-      <c r="C18">
-        <v>12.38</v>
-      </c>
-      <c r="D18">
-        <v>5.32</v>
-      </c>
-      <c r="E18">
-        <v>-45.37</v>
-      </c>
-      <c r="F18">
-        <v>144.61000000000001</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>2.3763157894736846</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1939</v>
-      </c>
-      <c r="J18">
-        <v>2623</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>3.87</v>
-      </c>
-      <c r="C19">
-        <v>11.91</v>
-      </c>
-      <c r="D19">
-        <v>6.07</v>
-      </c>
-      <c r="E19">
-        <v>-45.37</v>
-      </c>
-      <c r="F19">
-        <v>144.61000000000001</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>2.0578947368421052</v>
-      </c>
-      <c r="I19" s="14">
-        <v>1931</v>
-      </c>
-      <c r="J19">
-        <v>2623</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>2.57</v>
-      </c>
-      <c r="C20">
-        <v>11.05</v>
-      </c>
-      <c r="D20">
-        <v>6.79</v>
-      </c>
-      <c r="E20">
-        <v>-45.37</v>
-      </c>
-      <c r="F20">
-        <v>144.61000000000001</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>2.1157894736842104</v>
-      </c>
-      <c r="I20" s="14">
-        <v>1921</v>
-      </c>
-      <c r="J20">
-        <v>2623</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
+      <c r="C21">
+        <v>1913</v>
+      </c>
+      <c r="D21">
         <v>3.11</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>13.5</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>6.27</v>
       </c>
-      <c r="E21">
-        <v>-45.37</v>
-      </c>
-      <c r="F21">
-        <v>144.61000000000001</v>
-      </c>
-      <c r="G21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>2.367105263157895</v>
-      </c>
-      <c r="I21" s="14">
-        <v>1913</v>
-      </c>
-      <c r="J21">
-        <v>2623</v>
-      </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="13"/>
+      <c r="L21"/>
+      <c r="M21" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3704701-5F6F-42B5-8D6F-91E8701B9943}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>2004</v>
+      </c>
+      <c r="D2">
+        <v>-0.37</v>
+      </c>
+      <c r="E2">
+        <v>19.82</v>
+      </c>
+      <c r="F2">
+        <v>5.57</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>1992</v>
+      </c>
+      <c r="D3">
+        <v>-0.96</v>
+      </c>
+      <c r="E3">
+        <v>18.59</v>
+      </c>
+      <c r="F3">
+        <v>5.47</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>1982</v>
+      </c>
+      <c r="D4">
+        <v>0.23</v>
+      </c>
+      <c r="E4">
+        <v>18.78</v>
+      </c>
+      <c r="F4">
+        <v>6.73</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>1973</v>
+      </c>
+      <c r="D5">
+        <v>1.82</v>
+      </c>
+      <c r="E5">
+        <v>19.29</v>
+      </c>
+      <c r="F5">
+        <v>5.78</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>1967</v>
+      </c>
+      <c r="D6">
+        <v>-1.18</v>
+      </c>
+      <c r="E6">
+        <v>19.16</v>
+      </c>
+      <c r="F6">
+        <v>5.67</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>1962</v>
+      </c>
+      <c r="D7">
+        <v>0.23</v>
+      </c>
+      <c r="E7">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="F7">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>1958</v>
+      </c>
+      <c r="D8">
+        <v>2.61</v>
+      </c>
+      <c r="E8">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="F8">
+        <v>5.56</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>1955</v>
+      </c>
+      <c r="D9">
+        <v>3.87</v>
+      </c>
+      <c r="E9">
+        <v>19.12</v>
+      </c>
+      <c r="F9">
+        <v>9.35</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>1953</v>
+      </c>
+      <c r="D10">
+        <v>5.64</v>
+      </c>
+      <c r="E10">
+        <v>20.9</v>
+      </c>
+      <c r="F10">
+        <v>6.08</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1924</v>
+      </c>
+      <c r="D11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="F11">
+        <v>2.79</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>1958</v>
+      </c>
+      <c r="D12">
+        <v>4.51</v>
+      </c>
+      <c r="E12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F12">
+        <v>8.35</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>1956</v>
+      </c>
+      <c r="D13">
+        <v>4.58</v>
+      </c>
+      <c r="E13">
+        <v>17.5</v>
+      </c>
+      <c r="F13">
+        <v>7.87</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>1950</v>
+      </c>
+      <c r="D14">
+        <v>2.19</v>
+      </c>
+      <c r="E14">
+        <v>16.7</v>
+      </c>
+      <c r="F14">
+        <v>6.65</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>1941</v>
+      </c>
+      <c r="D15">
+        <v>4.37</v>
+      </c>
+      <c r="E15">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="F15">
+        <v>6.53</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>1933</v>
+      </c>
+      <c r="D16">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E16">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="F16">
+        <v>8.09</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>1925</v>
+      </c>
+      <c r="D17">
+        <v>2.72</v>
+      </c>
+      <c r="E17">
+        <v>17.22</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>1916</v>
+      </c>
+      <c r="D18">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E18">
+        <v>16.91</v>
+      </c>
+      <c r="F18">
+        <v>6.11</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>1906</v>
+      </c>
+      <c r="D19">
+        <v>4.13</v>
+      </c>
+      <c r="E19">
+        <v>16.91</v>
+      </c>
+      <c r="F19">
+        <v>9.77</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>1895</v>
+      </c>
+      <c r="D20">
+        <v>3.18</v>
+      </c>
+      <c r="E20">
+        <v>17.28</v>
+      </c>
+      <c r="F20">
+        <v>7.8</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>1893</v>
+      </c>
+      <c r="D21">
+        <v>4.18</v>
+      </c>
+      <c r="E21">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="F21">
+        <v>5.47</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>1888</v>
+      </c>
+      <c r="D22">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E22">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.08</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>-0.37</v>
-      </c>
-      <c r="C2">
-        <v>19.82</v>
-      </c>
-      <c r="D2">
-        <v>5.57</v>
-      </c>
-      <c r="E2">
-        <v>-27.41</v>
-      </c>
-      <c r="F2">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2">
-        <f>(C2-B2)/7.6+1</f>
-        <v>3.6565789473684212</v>
-      </c>
-      <c r="J2">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>2006</v>
+      </c>
+      <c r="D23">
+        <v>3.86</v>
+      </c>
+      <c r="E23">
+        <v>17.59</v>
+      </c>
+      <c r="F23">
+        <v>5.56</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
         <v>2004</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>-0.96</v>
-      </c>
-      <c r="C3">
-        <v>18.59</v>
-      </c>
-      <c r="D3">
-        <v>5.47</v>
-      </c>
-      <c r="E3">
-        <v>-27.41</v>
-      </c>
-      <c r="F3">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I26" si="0">(C3-B3)/7.6+1</f>
-        <v>3.5723684210526319</v>
-      </c>
-      <c r="J3">
-        <v>1992</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>0.23</v>
-      </c>
-      <c r="C4">
-        <v>18.78</v>
-      </c>
-      <c r="D4">
-        <v>6.73</v>
-      </c>
-      <c r="E4">
-        <v>-27.41</v>
-      </c>
-      <c r="F4">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>3.4407894736842106</v>
-      </c>
-      <c r="J4">
-        <v>1982</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>1.82</v>
-      </c>
-      <c r="C5">
-        <v>19.29</v>
-      </c>
-      <c r="D5">
-        <v>5.78</v>
-      </c>
-      <c r="E5">
-        <v>-27.41</v>
-      </c>
-      <c r="F5">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>3.2986842105263157</v>
-      </c>
-      <c r="J5">
-        <v>1973</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>-1.18</v>
-      </c>
-      <c r="C6">
-        <v>19.16</v>
-      </c>
-      <c r="D6">
-        <v>5.67</v>
-      </c>
-      <c r="E6">
-        <v>-27.41</v>
-      </c>
-      <c r="F6">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>3.6763157894736844</v>
-      </c>
-      <c r="J6">
-        <v>1967</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>0.23</v>
-      </c>
-      <c r="C7">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="D7">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="E7">
-        <v>-27.41</v>
-      </c>
-      <c r="F7">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>3.5250000000000004</v>
-      </c>
-      <c r="J7">
-        <v>1962</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>2.61</v>
-      </c>
-      <c r="C8">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="D8">
-        <v>5.56</v>
-      </c>
-      <c r="E8">
-        <v>-27.41</v>
-      </c>
-      <c r="F8">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>3.0802631578947373</v>
-      </c>
-      <c r="J8">
-        <v>1958</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>3.87</v>
-      </c>
-      <c r="C9">
-        <v>19.12</v>
-      </c>
-      <c r="D9">
-        <v>9.35</v>
-      </c>
-      <c r="E9">
-        <v>-27.41</v>
-      </c>
-      <c r="F9">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>3.0065789473684212</v>
-      </c>
-      <c r="J9">
-        <v>1955</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>5.64</v>
-      </c>
-      <c r="C10">
-        <v>20.9</v>
-      </c>
-      <c r="D10">
-        <v>6.08</v>
-      </c>
-      <c r="E10">
-        <v>-27.41</v>
-      </c>
-      <c r="F10">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>3.007894736842105</v>
-      </c>
-      <c r="J10">
-        <v>1953</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="D11">
-        <v>2.79</v>
-      </c>
-      <c r="E11">
-        <v>-27.41</v>
-      </c>
-      <c r="F11">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>3.2526315789473688</v>
-      </c>
-      <c r="J11">
-        <v>1924</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>4.51</v>
-      </c>
-      <c r="C12">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D12">
-        <v>8.35</v>
-      </c>
-      <c r="E12">
-        <v>-28.27</v>
-      </c>
-      <c r="F12">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>2.853947368421053</v>
-      </c>
-      <c r="J12">
-        <v>1958</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>4.58</v>
-      </c>
-      <c r="C13">
-        <v>17.5</v>
-      </c>
-      <c r="D13">
-        <v>7.87</v>
-      </c>
-      <c r="E13">
-        <v>-28.27</v>
-      </c>
-      <c r="F13">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="J13">
-        <v>1956</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
-        <v>2.19</v>
-      </c>
-      <c r="C14">
-        <v>16.7</v>
-      </c>
-      <c r="D14">
-        <v>6.65</v>
-      </c>
-      <c r="E14">
-        <v>-28.27</v>
-      </c>
-      <c r="F14">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>2.9092105263157895</v>
-      </c>
-      <c r="J14">
-        <v>1950</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15">
-        <v>4.37</v>
-      </c>
-      <c r="C15">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="D15">
-        <v>6.53</v>
-      </c>
-      <c r="E15">
-        <v>-28.27</v>
-      </c>
-      <c r="F15">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>2.7171052631578947</v>
-      </c>
-      <c r="J15">
-        <v>1941</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="C16">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="D16">
-        <v>8.09</v>
-      </c>
-      <c r="E16">
-        <v>-28.27</v>
-      </c>
-      <c r="F16">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>2.8078947368421057</v>
-      </c>
-      <c r="J16">
-        <v>1933</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>2.72</v>
-      </c>
-      <c r="C17">
-        <v>17.22</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>-28.27</v>
-      </c>
-      <c r="F17">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>2.9078947368421053</v>
-      </c>
-      <c r="J17">
-        <v>1925</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C18">
-        <v>16.91</v>
-      </c>
-      <c r="D18">
-        <v>6.11</v>
-      </c>
-      <c r="E18">
-        <v>-28.27</v>
-      </c>
-      <c r="F18">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>2.6802631578947369</v>
-      </c>
-      <c r="J18">
-        <v>1916</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19">
-        <v>4.13</v>
-      </c>
-      <c r="C19">
-        <v>16.91</v>
-      </c>
-      <c r="D19">
-        <v>9.77</v>
-      </c>
-      <c r="E19">
-        <v>-28.27</v>
-      </c>
-      <c r="F19">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>2.6815789473684211</v>
-      </c>
-      <c r="J19">
-        <v>1906</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20">
-        <v>3.18</v>
-      </c>
-      <c r="C20">
-        <v>17.28</v>
-      </c>
-      <c r="D20">
-        <v>7.8</v>
-      </c>
-      <c r="E20">
-        <v>-28.27</v>
-      </c>
-      <c r="F20">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>2.8552631578947372</v>
-      </c>
-      <c r="J20">
-        <v>1895</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <v>4.18</v>
-      </c>
-      <c r="C21">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="D21">
-        <v>5.47</v>
-      </c>
-      <c r="E21">
-        <v>-28.27</v>
-      </c>
-      <c r="F21">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>2.8921052631578945</v>
-      </c>
-      <c r="J21">
-        <v>1893</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="C22">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="D22">
-        <v>5.08</v>
-      </c>
-      <c r="E22">
-        <v>-28.27</v>
-      </c>
-      <c r="F22">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>2.8631578947368421</v>
-      </c>
-      <c r="J22">
-        <v>1888</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="D24">
+        <v>2.94</v>
+      </c>
+      <c r="E24">
+        <v>18.93</v>
+      </c>
+      <c r="F24">
+        <v>4.87</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1989</v>
+      </c>
+      <c r="D25">
+        <v>1.27</v>
+      </c>
+      <c r="E25">
+        <v>18.71</v>
+      </c>
+      <c r="F25">
+        <v>4.79</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>3.86</v>
-      </c>
-      <c r="C23">
-        <v>17.59</v>
-      </c>
-      <c r="D23">
-        <v>5.56</v>
-      </c>
-      <c r="E23">
-        <v>-27.41</v>
-      </c>
-      <c r="F23">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>2.8065789473684211</v>
-      </c>
-      <c r="J23">
-        <v>2006</v>
-      </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>2.94</v>
-      </c>
-      <c r="C24">
-        <v>18.93</v>
-      </c>
-      <c r="D24">
-        <v>4.87</v>
-      </c>
-      <c r="E24">
-        <v>-27.41</v>
-      </c>
-      <c r="F24">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>3.1039473684210526</v>
-      </c>
-      <c r="J24">
-        <v>2004</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1.27</v>
-      </c>
-      <c r="C25">
-        <v>18.71</v>
-      </c>
-      <c r="D25">
-        <v>4.79</v>
-      </c>
-      <c r="E25">
-        <v>-27.41</v>
-      </c>
-      <c r="F25">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>3.2947368421052636</v>
-      </c>
-      <c r="J25">
-        <v>1989</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
+      <c r="C26">
+        <v>1978</v>
+      </c>
+      <c r="D26">
         <v>3.42</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>18.37</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>5.19</v>
       </c>
-      <c r="E26">
-        <v>-27.41</v>
-      </c>
-      <c r="F26">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>2.9671052631578947</v>
-      </c>
-      <c r="J26">
-        <v>1978</v>
-      </c>
-      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2976,31 +2596,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>1955</v>
@@ -3017,10 +2637,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>1894</v>
@@ -3037,10 +2657,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>1848</v>
@@ -3057,10 +2677,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>1812</v>
@@ -3077,10 +2697,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>1788</v>
@@ -3097,10 +2717,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1">
         <v>1767</v>
@@ -3117,10 +2737,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1">
         <v>1765</v>
@@ -3137,10 +2757,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>1711</v>
@@ -3157,10 +2777,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1">
         <v>1672</v>
@@ -3177,10 +2797,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1">
         <v>1626</v>
@@ -3197,10 +2817,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1">
         <v>1570</v>
@@ -3217,10 +2837,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1">
         <v>1508</v>
@@ -3237,10 +2857,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1">
         <v>1503</v>
@@ -3257,10 +2877,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1">
         <v>1462</v>
@@ -3277,10 +2897,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1">
         <v>1452</v>
@@ -3297,10 +2917,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1">
         <v>1373</v>
@@ -3317,10 +2937,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1">
         <v>1352</v>
@@ -3337,10 +2957,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1">
         <v>1315</v>
@@ -3357,10 +2977,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <v>1311</v>
@@ -3377,10 +2997,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1">
         <v>1224</v>
@@ -3418,19 +3038,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3438,7 +3058,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>56</v>
@@ -3455,11 +3075,11 @@
       <c r="F2">
         <v>9.26</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -3476,11 +3096,11 @@
       <c r="F3">
         <v>10.09</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>61</v>
@@ -3497,11 +3117,11 @@
       <c r="F4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>59</v>
@@ -3521,7 +3141,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -3538,11 +3158,11 @@
       <c r="F6">
         <v>10.38</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>53</v>
@@ -3559,11 +3179,11 @@
       <c r="F7">
         <v>10.16</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>45</v>
@@ -3580,11 +3200,11 @@
       <c r="F8">
         <v>9.65</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>46</v>
@@ -3601,11 +3221,11 @@
       <c r="F9">
         <v>10.210000000000001</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>41</v>
@@ -3622,11 +3242,11 @@
       <c r="F10">
         <v>9.16</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>39</v>
@@ -3643,11 +3263,11 @@
       <c r="F11">
         <v>9.6199999999999992</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>38</v>
@@ -3664,11 +3284,11 @@
       <c r="F12">
         <v>10.68</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>34</v>
@@ -3685,11 +3305,11 @@
       <c r="F13">
         <v>9.9</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>32</v>
@@ -3706,11 +3326,11 @@
       <c r="F14">
         <v>9.86</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <v>29</v>
@@ -3727,11 +3347,11 @@
       <c r="F15">
         <v>9.42</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -3748,11 +3368,11 @@
       <c r="F16">
         <v>11.08</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -3769,11 +3389,11 @@
       <c r="F17">
         <v>9.92</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -3790,11 +3410,11 @@
       <c r="F18">
         <v>11.07</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -3811,11 +3431,11 @@
       <c r="F19">
         <v>8.9700000000000006</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -3832,11 +3452,11 @@
       <c r="F20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -3853,11 +3473,11 @@
       <c r="F21">
         <v>9.66</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -3874,11 +3494,11 @@
       <c r="F22">
         <v>10.65</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -3895,11 +3515,11 @@
       <c r="F23">
         <v>9.48</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>15</v>
@@ -3916,11 +3536,11 @@
       <c r="F24">
         <v>9.6199999999999992</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -3937,11 +3557,11 @@
       <c r="F25">
         <v>8.94</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -3958,11 +3578,11 @@
       <c r="F26">
         <v>8.49</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3979,11 +3599,11 @@
       <c r="F27">
         <v>9.35</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -4000,11 +3620,11 @@
       <c r="F28">
         <v>10.31</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4021,7 +3641,7 @@
       <c r="F29">
         <v>9.93</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4043,7 +3663,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4055,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4435,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4447,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4830,13 +4450,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -4844,7 +4464,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1991</v>
@@ -4861,7 +4481,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>1813</v>
@@ -4878,7 +4498,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>1636</v>
@@ -4895,7 +4515,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>1400</v>
@@ -4912,7 +4532,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>1276</v>
@@ -4929,7 +4549,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>704</v>
@@ -4946,7 +4566,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>551</v>
@@ -4963,7 +4583,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>426</v>
@@ -4980,7 +4600,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>171</v>
@@ -5004,525 +4624,525 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF9B600-9FF6-4E95-9F03-0BE826CB9F90}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="3"/>
-    <col min="4" max="4" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="3"/>
+    <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>6212.3008849557518</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.8538095238095238</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14.525000000000002</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.1064285714285713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>7513.1858407079644</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.4228333333333323</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13.398833333333332</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.5451666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>9594.6017699115055</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.5668571428571418</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16.734095238095236</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.3743809523809523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>10114.955752212391</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.8015238095238084</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17.608761904761909</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7.073714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="B6">
+        <v>10557.256637168148</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.9606249999999994</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18.056750000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.7546249999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>11337.787610619485</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.253666666666664</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15.292166666666667</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8.3121666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>11597.964601769932</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.0183809523809515</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15.391952380952381</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8.6010476190476197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>12217</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.6103928571428554</v>
+      </c>
+      <c r="D9" s="3">
+        <v>17.924250000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7.9166785714285703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>12350</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10.560166666666667</v>
+      </c>
+      <c r="D10" s="3">
+        <v>18.621000000000002</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9.1133333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>12770</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10.072380952380954</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17.137952380952381</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6.7363809523809524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>12925.945945945947</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11.378916666666667</v>
+      </c>
+      <c r="D12" s="3">
+        <v>17.369083333333336</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9.0124999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>13613.513513513506</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.6222916666666656</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16.716583333333332</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.745708333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.8538095238095238</v>
-      </c>
-      <c r="C2" s="3">
-        <v>14.525000000000002</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4.1064285714285713</v>
-      </c>
-      <c r="E2">
-        <v>6212.3008849557518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="B14">
+        <v>13785.405405405396</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10.241833333333334</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16.415500000000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9.8089999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="3">
-        <v>6.4228333333333323</v>
-      </c>
-      <c r="C3" s="3">
-        <v>13.398833333333332</v>
-      </c>
-      <c r="D3" s="6">
-        <v>5.5451666666666668</v>
-      </c>
-      <c r="E3">
-        <v>7513.1858407079644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="B15">
+        <v>13938.690022848446</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11.679166666666667</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16.667499999999997</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9.9159999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="3">
-        <v>6.5668571428571418</v>
-      </c>
-      <c r="C4" s="3">
-        <v>16.734095238095236</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4.3743809523809523</v>
-      </c>
-      <c r="E4">
-        <v>9594.6017699115055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="B16">
+        <v>14017.136329017525</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10.964571428571428</v>
+      </c>
+      <c r="D16" s="3">
+        <v>17.143928571428571</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9.7123214285714283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="3">
-        <v>7.8015238095238084</v>
-      </c>
-      <c r="C5" s="3">
-        <v>17.608761904761909</v>
-      </c>
-      <c r="D5" s="6">
-        <v>7.073714285714285</v>
-      </c>
-      <c r="E5">
-        <v>10114.955752212391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="B17">
+        <v>14142.650418888054</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.9609999999999985</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14.150375</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9.7188095238095258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="3">
-        <v>7.9606249999999994</v>
-      </c>
-      <c r="C6" s="3">
-        <v>18.056750000000001</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6.7546249999999999</v>
-      </c>
-      <c r="E6">
-        <v>10557.256637168148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="B18">
+        <v>14236.78598629095</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10.392904761904763</v>
+      </c>
+      <c r="D18" s="3">
+        <v>17.161190476190477</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10.115380952380953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="3">
-        <v>8.253666666666664</v>
-      </c>
-      <c r="C7" s="3">
-        <v>15.292166666666667</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8.3121666666666663</v>
-      </c>
-      <c r="E7">
-        <v>11337.787610619485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="B19">
+        <v>14425.057121096743</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10.971321428571427</v>
+      </c>
+      <c r="D19" s="3">
+        <v>17.413928571428571</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10.670071428571427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="3">
-        <v>9.0183809523809515</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15.391952380952381</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8.6010476190476197</v>
-      </c>
-      <c r="E8">
-        <v>11597.964601769932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="B20">
+        <v>14566.260472201087</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10.573416666666665</v>
+      </c>
+      <c r="D20" s="3">
+        <v>16.569083333333335</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9.6418333333333344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="3">
-        <v>9.6103928571428554</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17.924250000000001</v>
-      </c>
-      <c r="D9" s="6">
-        <v>7.9166785714285703</v>
-      </c>
-      <c r="E9">
-        <v>12217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="B21">
+        <v>14750.100421120829</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.8298333333333332</v>
+      </c>
+      <c r="D21" s="3">
+        <v>16.388472222222223</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6.9521111111111109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="3">
-        <v>10.560166666666667</v>
-      </c>
-      <c r="C10" s="3">
-        <v>18.621000000000002</v>
-      </c>
-      <c r="D10" s="6">
-        <v>9.1133333333333333</v>
-      </c>
-      <c r="E10">
-        <v>12350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="B22">
+        <v>14939.928733398121</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10.320083333333335</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16.378222222222224</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5.7978611111111116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="3">
-        <v>10.072380952380954</v>
-      </c>
-      <c r="C11" s="3">
-        <v>17.137952380952381</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6.7363809523809524</v>
-      </c>
-      <c r="E11">
-        <v>12770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="B23">
+        <v>15034.842889536767</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.9373333333333331</v>
+      </c>
+      <c r="D23" s="3">
+        <v>19.219733333333334</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7.3067333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="3">
-        <v>11.378916666666667</v>
-      </c>
-      <c r="C12" s="3">
-        <v>17.369083333333336</v>
-      </c>
-      <c r="D12" s="6">
-        <v>9.0124999999999993</v>
-      </c>
-      <c r="E12">
-        <v>12925.945945945947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="B24">
+        <v>15699.241982507288</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.3070000000000022</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16.367972222222221</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6.5071111111111115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="3">
-        <v>8.6222916666666656</v>
-      </c>
-      <c r="C13" s="3">
-        <v>16.716583333333332</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8.745708333333333</v>
-      </c>
-      <c r="E13">
-        <v>13613.513513513506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="B25">
+        <v>16173.812763200518</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.1481666666666666</v>
+      </c>
+      <c r="D25" s="3">
+        <v>16.144500000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>7.6271666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="3">
-        <v>10.241833333333334</v>
-      </c>
-      <c r="C14" s="3">
-        <v>16.415500000000002</v>
-      </c>
-      <c r="D14" s="6">
-        <v>9.8089999999999993</v>
-      </c>
-      <c r="E14">
-        <v>13785.405405405396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="B26">
+        <v>16838.211856171041</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8.1788333333333334</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13.987000000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7.2865000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="3">
-        <v>11.679166666666667</v>
-      </c>
-      <c r="C15" s="3">
-        <v>16.667499999999997</v>
-      </c>
-      <c r="D15" s="6">
-        <v>9.9159999999999986</v>
-      </c>
-      <c r="E15">
-        <v>13938.690022848446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="B27">
+        <v>17217.868480725625</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17.9434</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6.1757333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="3">
-        <v>10.964571428571428</v>
-      </c>
-      <c r="C16" s="3">
-        <v>17.143928571428571</v>
-      </c>
-      <c r="D16" s="6">
-        <v>9.7123214285714283</v>
-      </c>
-      <c r="E16">
-        <v>14017.136329017525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="B28">
+        <v>18188.890730948675</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.5227499999999994</v>
+      </c>
+      <c r="D28" s="3">
+        <v>16.415875</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5.7964761904761914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="3">
-        <v>8.9609999999999985</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14.150375</v>
-      </c>
-      <c r="D17" s="6">
-        <v>9.7188095238095258</v>
-      </c>
-      <c r="E17">
-        <v>14142.650418888054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="B29">
+        <v>18243.945163297041</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6.8665714285714285</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13.142857142857142</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3.1873809523809524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="3">
-        <v>10.392904761904763</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17.161190476190477</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10.115380952380953</v>
-      </c>
-      <c r="E18">
-        <v>14236.78598629095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10.971321428571427</v>
-      </c>
-      <c r="C19" s="3">
-        <v>17.413928571428571</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10.670071428571427</v>
-      </c>
-      <c r="E19">
-        <v>14425.057121096743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10.573416666666665</v>
-      </c>
-      <c r="C20" s="3">
-        <v>16.569083333333335</v>
-      </c>
-      <c r="D20" s="6">
-        <v>9.6418333333333344</v>
-      </c>
-      <c r="E20">
-        <v>14566.260472201087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9.8298333333333332</v>
-      </c>
-      <c r="C21" s="3">
-        <v>16.388472222222223</v>
-      </c>
-      <c r="D21" s="6">
-        <v>6.9521111111111109</v>
-      </c>
-      <c r="E21">
-        <v>14750.100421120829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="3">
-        <v>10.320083333333335</v>
-      </c>
-      <c r="C22" s="3">
-        <v>16.378222222222224</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5.7978611111111116</v>
-      </c>
-      <c r="E22">
-        <v>14939.928733398121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="3">
-        <v>9.9373333333333331</v>
-      </c>
-      <c r="C23" s="3">
-        <v>19.219733333333334</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.3067333333333329</v>
-      </c>
-      <c r="E23">
-        <v>15034.842889536767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3">
-        <v>9.3070000000000022</v>
-      </c>
-      <c r="C24" s="3">
-        <v>16.367972222222221</v>
-      </c>
-      <c r="D24" s="6">
-        <v>6.5071111111111115</v>
-      </c>
-      <c r="E24">
-        <v>15699.241982507288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="3">
-        <v>9.1481666666666666</v>
-      </c>
-      <c r="C25" s="3">
-        <v>16.144500000000001</v>
-      </c>
-      <c r="D25" s="6">
-        <v>7.6271666666666667</v>
-      </c>
-      <c r="E25">
-        <v>16173.812763200518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="3">
-        <v>8.1788333333333334</v>
-      </c>
-      <c r="C26" s="3">
-        <v>13.987000000000002</v>
-      </c>
-      <c r="D26" s="6">
-        <v>7.2865000000000002</v>
-      </c>
-      <c r="E26">
-        <v>16838.211856171041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8.0139999999999993</v>
-      </c>
-      <c r="C27" s="3">
-        <v>17.9434</v>
-      </c>
-      <c r="D27" s="6">
-        <v>6.1757333333333335</v>
-      </c>
-      <c r="E27">
-        <v>17217.868480725625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7.5227499999999994</v>
-      </c>
-      <c r="C28" s="3">
-        <v>16.415875</v>
-      </c>
-      <c r="D28" s="6">
-        <v>5.7964761904761914</v>
-      </c>
-      <c r="E28">
-        <v>18188.890730948675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6.8665714285714285</v>
-      </c>
-      <c r="C29" s="3">
-        <v>13.142857142857142</v>
-      </c>
-      <c r="D29" s="6">
-        <v>3.1873809523809524</v>
-      </c>
-      <c r="E29">
-        <v>18243.945163297041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="B30">
+        <v>18941.30130637635</v>
+      </c>
+      <c r="C30" s="3">
         <v>8.900133333333331</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>16.183933333333336</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="5">
         <v>6.1274000000000006</v>
-      </c>
-      <c r="E30">
-        <v>18941.30130637635</v>
       </c>
     </row>
   </sheetData>
@@ -5545,7 +5165,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5557,17 +5177,17 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="11">
+        <v>134</v>
+      </c>
+      <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2">
@@ -5582,13 +5202,13 @@
       <c r="F2">
         <v>6.8</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="11">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3">
@@ -5603,13 +5223,13 @@
       <c r="F3">
         <v>6.6</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="11">
+        <v>134</v>
+      </c>
+      <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4">
@@ -5624,13 +5244,13 @@
       <c r="F4">
         <v>6.7</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="11">
+        <v>134</v>
+      </c>
+      <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5">
@@ -5645,13 +5265,13 @@
       <c r="F5">
         <v>6.9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="11">
+        <v>134</v>
+      </c>
+      <c r="B6" s="10">
         <v>5</v>
       </c>
       <c r="C6">
@@ -5666,13 +5286,13 @@
       <c r="F6">
         <v>6.6</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="11">
+        <v>134</v>
+      </c>
+      <c r="B7" s="10">
         <v>7</v>
       </c>
       <c r="C7">
@@ -5687,13 +5307,13 @@
       <c r="F7">
         <v>6.9</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="11">
+        <v>134</v>
+      </c>
+      <c r="B8" s="10">
         <v>9</v>
       </c>
       <c r="C8">
@@ -5708,13 +5328,13 @@
       <c r="F8">
         <v>6.7</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="11">
+        <v>134</v>
+      </c>
+      <c r="B9" s="10">
         <v>11</v>
       </c>
       <c r="C9">
@@ -5729,13 +5349,13 @@
       <c r="F9">
         <v>6.9</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="11">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10">
         <v>16</v>
       </c>
       <c r="C10">
@@ -5750,13 +5370,13 @@
       <c r="F10">
         <v>7.3</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="11">
+        <v>134</v>
+      </c>
+      <c r="B11" s="10">
         <v>22</v>
       </c>
       <c r="C11">
@@ -5771,13 +5391,13 @@
       <c r="F11">
         <v>7.1</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="11">
+        <v>134</v>
+      </c>
+      <c r="B12" s="10">
         <v>28</v>
       </c>
       <c r="C12">
@@ -5792,11 +5412,11 @@
       <c r="F12">
         <v>7</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>34</v>
@@ -5813,11 +5433,11 @@
       <c r="F13">
         <v>7.3</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>39</v>
@@ -5834,7 +5454,7 @@
       <c r="F14">
         <v>7.5</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5843,417 +5463,263 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A5B215-F7C3-4C5D-ABD9-E1862F022243}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1994</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.49</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1991</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>19.88</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="C2" s="4">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D2" s="4">
-        <v>8.42</v>
-      </c>
-      <c r="E2">
-        <v>-41</v>
-      </c>
-      <c r="F2" s="4">
-        <v>148</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2">
-        <f>(C2-B2)/7.6+1</f>
-        <v>2.6986842105263156</v>
-      </c>
-      <c r="K2" s="12">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="C5" s="4">
+        <v>1975</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E5" s="4">
+        <v>16.87</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>6.78</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6.49</v>
-      </c>
-      <c r="E3">
-        <v>-41</v>
-      </c>
-      <c r="F3" s="4">
-        <v>148</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="0">(C3-B3)/7.6+1</f>
-        <v>2.5223684210526316</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="C6" s="4">
+        <v>1970</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E6" s="4">
+        <v>17.57</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.68</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="C4" s="4">
-        <v>19.88</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8.07</v>
-      </c>
-      <c r="E4">
-        <v>-41</v>
-      </c>
-      <c r="F4" s="4">
-        <v>148</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>2.9657894736842101</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="C7" s="4">
+        <v>1988</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20.16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C5" s="4">
-        <v>16.87</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6.79</v>
-      </c>
-      <c r="E5">
-        <v>-41</v>
-      </c>
-      <c r="F5" s="4">
-        <v>148</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>2.6736842105263161</v>
-      </c>
-      <c r="K5" s="12">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
+      <c r="C8" s="4">
+        <v>1980</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20.28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="C6" s="4">
-        <v>17.57</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7.68</v>
-      </c>
-      <c r="E6">
-        <v>-41</v>
-      </c>
-      <c r="F6" s="4">
-        <v>148</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>2.7776315789473687</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="C9" s="4">
         <v>1970</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="D9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>19.39</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>3.72</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20.16</v>
-      </c>
-      <c r="D7" s="4">
-        <v>7.47</v>
-      </c>
-      <c r="E7">
-        <v>-44</v>
-      </c>
-      <c r="F7" s="4">
-        <v>150.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>3.1631578947368424</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="C10" s="4">
+        <v>1961</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>19.73</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7.48</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20.28</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="E8">
-        <v>-44</v>
-      </c>
-      <c r="F8" s="4">
-        <v>150.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>2.655263157894737</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>19.39</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7.47</v>
-      </c>
-      <c r="E9">
-        <v>-44</v>
-      </c>
-      <c r="F9" s="4">
-        <v>150.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>3.0907894736842105</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2.17</v>
-      </c>
-      <c r="C10" s="4">
-        <v>19.73</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7.48</v>
-      </c>
-      <c r="E10">
-        <v>-44</v>
-      </c>
-      <c r="F10" s="4">
-        <v>150.5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>3.310526315789474</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
+        <v>1940</v>
+      </c>
+      <c r="D11" s="4">
         <v>3.41</v>
       </c>
-      <c r="C11" s="4">
+      <c r="E11" s="4">
         <v>17.579999999999998</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="4">
         <v>6.87</v>
       </c>
-      <c r="E11">
-        <v>-44</v>
-      </c>
-      <c r="F11" s="4">
-        <v>150.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>2.8644736842105258</v>
-      </c>
-      <c r="K11" s="12">
-        <v>1940</v>
-      </c>
+      <c r="H11" s="4"/>
+      <c r="M11" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets/TP_Phe comparison.xlsx
+++ b/Datasets/TP_Phe comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmpug\Documents\UCSC stuff\Python_Scripts\TP_Phe_Project\TP_baseline_coupling\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCF921-6B1F-4972-B028-B1D2A714C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D30754-82D1-44CE-BB64-EC72B6CD03BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" firstSheet="2" activeTab="10" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="13" r:id="rId1"/>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BD6652-7E22-48D6-B660-69F707629B2A}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="57" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2018,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3704701-5F6F-42B5-8D6F-91E8701B9943}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
